--- a/INFORMACION Fundamentos y Logica.xlsx
+++ b/INFORMACION Fundamentos y Logica.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="14">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -50,10 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve"> https://github.com/DevJumpProf/fundamentos_y_logica</t>
-  </si>
-  <si>
-    <t>Parte 1 - https://drive.google.com/file/d/1NH5XaxS0OswcXK0VwMcmngeHKo9H0bvI/view?usp=sharing 
-Parte 2 - https://drive.google.com/file/d/1E3iVuGiMbt1VMxpq3ExZwFAfqlmK-ZKu/view?usp=sharing</t>
   </si>
   <si>
     <t>* ¿QUÉ ES LA PROGRAMACIÓN?
@@ -95,6 +91,38 @@
 * Variables,
 * Datos (pseint)
 * Asignación</t>
+  </si>
+  <si>
+    <t>* Introducción
+* PSeInt
+* Instalación
+* Herramientas
+* Click derecho
+* Paso a paso
+* Variables,
+* Datos (pseint)
+* Asignación
+* Reglas (en Javascript)
+* Punto y coma
+* Leer
+* Concatenación
+* Práctica
+* TIP
+* Operadores
+* Operadores Aritméticos
+* Operadores relacionales
+* Operadores lógicos
+* Estructuras de control
+* if/else (si/no)
+* Ejercicio: super_Adivina</t>
+  </si>
+  <si>
+    <t>Parte 1 - https://drive.google.com/file/d/1S6BU-dMfe3di_IFqQaRqTMMncfHcDbOm/view?usp=sharing
+Parte 2 - https://drive.google.com/file/d/16Cc2BCtsRBdEuEMcHNNSH7EKc_bMulv8/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Parte 1 - https://drive.google.com/file/d/1NH5XaxS0OswcXK0VwMcmngeHKo9H0bvI/view?usp=sharing
+Parte 2 - https://drive.google.com/file/d/1E3iVuGiMbt1VMxpq3ExZwFAfqlmK-ZKu/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -535,19 +563,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -770,25 +798,26 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.81640625" customWidth="1"/>
     <col min="2" max="2" width="6.6328125" customWidth="1"/>
-    <col min="3" max="3" width="67.6328125" customWidth="1"/>
+    <col min="3" max="3" width="74.81640625" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" customWidth="1"/>
     <col min="5" max="5" width="2.08984375" customWidth="1"/>
     <col min="6" max="6" width="38.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -812,31 +841,39 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="89" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44720</v>
       </c>
       <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>44722</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="39" t="s">
+        <v>12</v>
+      </c>
       <c r="E4" s="9" t="s">
         <v>5</v>
       </c>
@@ -1419,7 +1456,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="A10:D12"/>
+      <selection activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1433,7 +1470,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="37" t="s">
         <v>9</v>
       </c>
     </row>

--- a/INFORMACION Fundamentos y Logica.xlsx
+++ b/INFORMACION Fundamentos y Logica.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="16">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -123,6 +123,18 @@
   <si>
     <t>Parte 1 - https://drive.google.com/file/d/1NH5XaxS0OswcXK0VwMcmngeHKo9H0bvI/view?usp=sharing
 Parte 2 - https://drive.google.com/file/d/1E3iVuGiMbt1VMxpq3ExZwFAfqlmK-ZKu/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Condicionales:Estructuras de control
+if/else (si/no)
+Ejercicio: super_Adivina
+switch (segun)
+Ejercicio: libro-pelicula o juego
+while
+Ejercicio: Adivinar el Numero Aleatorio</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1EfCb1vtrGCvpMsAwwG6zynYI1r7gH2Q2/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -461,7 +473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -576,6 +588,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -798,7 +816,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -880,10 +898,18 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="10"/>
+      <c r="A5" s="42">
+        <v>44727</v>
+      </c>
+      <c r="B5" s="43">
+        <v>3</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" s="9" t="s">
         <v>5</v>
       </c>
@@ -1442,9 +1468,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/INFORMACION Fundamentos y Logica.xlsx
+++ b/INFORMACION Fundamentos y Logica.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="20">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -135,6 +135,24 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1EfCb1vtrGCvpMsAwwG6zynYI1r7gH2Q2/view?usp=sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Array (Arreglos)
+* for (para)
+* for of
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kqb4E0XJ4LjwzW246yl7h6jGmx3ZnhaN/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Resolucion de ejercicios:
+* for (para)
+* for of 
+Funciones</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1USLZ1AKjFYY0l90Bbb9x9Er_j53UgPzA/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -473,7 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -588,11 +606,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -816,7 +837,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -863,7 +884,7 @@
       <c r="A3" s="7">
         <v>44720</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="13">
         <v>1</v>
       </c>
       <c r="C3" s="39" t="s">
@@ -883,7 +904,7 @@
       <c r="A4" s="7">
         <v>44722</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="13">
         <v>2</v>
       </c>
       <c r="C4" s="39" t="s">
@@ -898,10 +919,10 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42">
+      <c r="A5" s="43">
         <v>44727</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="44">
         <v>3</v>
       </c>
       <c r="C5" s="39" t="s">
@@ -915,10 +936,18 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="7">
+        <v>44741</v>
+      </c>
+      <c r="B6" s="13">
+        <v>4</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>17</v>
+      </c>
       <c r="E6" s="9" t="s">
         <v>5</v>
       </c>
@@ -927,10 +956,18 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="10"/>
+      <c r="A7" s="7">
+        <v>44743</v>
+      </c>
+      <c r="B7" s="13">
+        <v>5</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="9" t="s">
         <v>5</v>
       </c>
@@ -975,7 +1012,7 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="10"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="9" t="s">
         <v>5</v>
       </c>
@@ -1469,9 +1506,11 @@
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
     <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/INFORMACION Fundamentos y Logica.xlsx
+++ b/INFORMACION Fundamentos y Logica.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="22">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1USLZ1AKjFYY0l90Bbb9x9Er_j53UgPzA/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>git . github</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16jtCiZjNRLEr15i5xhk54uT1RlID2odV/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -491,7 +497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -602,18 +608,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -837,7 +852,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A8" sqref="A8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -851,12 +866,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -919,10 +934,10 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
+      <c r="A5" s="41">
         <v>44727</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="42">
         <v>3</v>
       </c>
       <c r="C5" s="39" t="s">
@@ -955,7 +970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>44743</v>
       </c>
@@ -972,11 +987,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="10"/>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="45">
+        <v>44746</v>
+      </c>
+      <c r="B8" s="46">
+        <v>6</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>21</v>
+      </c>
       <c r="E8" s="9" t="s">
         <v>5</v>
       </c>
@@ -1012,7 +1035,7 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="42"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="9" t="s">
         <v>5</v>
       </c>
@@ -1508,9 +1531,10 @@
     <hyperlink ref="D5" r:id="rId2"/>
     <hyperlink ref="D6" r:id="rId3"/>
     <hyperlink ref="D7" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/INFORMACION Fundamentos y Logica.xlsx
+++ b/INFORMACION Fundamentos y Logica.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="26">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -159,6 +159,25 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/16jtCiZjNRLEr15i5xhk54uT1RlID2odV/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Repaso Gral+
+Ejercicios Git y GitHub
+Reestructuracion de Archivos.
+Preparativos y metarial para Javascript</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GlMXIlae7SPtTIlQKlAQmbzooHobJA8B/view?usp=sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Introducción Integral a Javascript
+* Introducción a Javascript
+* Variables
+* Strings, Numbers y Booleanos</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rzyBqc_q8GZJX6oLqeB3Q7YsiPNEYToV/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -617,19 +636,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -851,8 +870,8 @@
   </sheetPr>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -866,12 +885,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -988,36 +1007,52 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45">
+      <c r="A8" s="43">
         <v>44746</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="44">
         <v>6</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="45" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="10"/>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="43">
+        <v>44748</v>
+      </c>
+      <c r="B9" s="44">
+        <v>7</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>23</v>
+      </c>
       <c r="E9" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="7">
+        <v>44750</v>
+      </c>
+      <c r="B10" s="8">
+        <v>8</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>25</v>
+      </c>
       <c r="E10" s="9" t="s">
         <v>5</v>
       </c>
@@ -1532,9 +1567,11 @@
     <hyperlink ref="D6" r:id="rId3"/>
     <hyperlink ref="D7" r:id="rId4"/>
     <hyperlink ref="D8" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId6"/>
+    <hyperlink ref="D10" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/INFORMACION Fundamentos y Logica.xlsx
+++ b/INFORMACION Fundamentos y Logica.xlsx
@@ -871,7 +871,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="A10:D10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/INFORMACION Fundamentos y Logica.xlsx
+++ b/INFORMACION Fundamentos y Logica.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="28">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -178,6 +178,21 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1rzyBqc_q8GZJX6oLqeB3Q7YsiPNEYToV/view?usp=sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introducción Integral a Javascript
+En esta lección cubriremos:
+* Introducción a Javascript (Repaso)
+* Variables  (Repaso)
+* Strings, Numbers y Booleanos  (Repaso)
+* Math
+* Operadores lógicos y de Comparacion
+* Control de flujo y operadores de comparación
+* `Undefined` y `null`
+* Operadores de comparación </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xY7meV-DhpzCNA-DRPqFwvzyBfA2tBCj/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -871,7 +886,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1058,10 +1073,18 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="12"/>
+      <c r="A11" s="7">
+        <v>44753</v>
+      </c>
+      <c r="B11" s="8">
+        <v>9</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="E11" s="9" t="s">
         <v>5</v>
       </c>
@@ -1569,9 +1592,10 @@
     <hyperlink ref="D8" r:id="rId5"/>
     <hyperlink ref="D9" r:id="rId6"/>
     <hyperlink ref="D10" r:id="rId7"/>
+    <hyperlink ref="D11" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/INFORMACION Fundamentos y Logica.xlsx
+++ b/INFORMACION Fundamentos y Logica.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="30">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -193,6 +193,14 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1xY7meV-DhpzCNA-DRPqFwvzyBfA2tBCj/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Metodo .length - Plantillas literales (backticks) - Ejercicos de lógica e implementacion de lo aprendido - 
+Control de flujo - Operadores logicos y de comparación - Ejercicos de lógica e implementacion de lo aprendido - 
+ntrol de flujo - Operadores logicos y de comparación (Avanzado) - undefined y null - Veracidad - Ejercicos - Git (Actualizamos el codigo)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1k-w-rlJ9v69tkWToqMq05xBueHLijubh/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -531,7 +539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -641,9 +649,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -886,7 +891,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="A11:D11"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -900,12 +905,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -968,10 +973,10 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41">
+      <c r="A5" s="40">
         <v>44727</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="41">
         <v>3</v>
       </c>
       <c r="C5" s="39" t="s">
@@ -1022,16 +1027,16 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43">
+      <c r="A8" s="42">
         <v>44746</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="43">
         <v>6</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="44" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -1039,16 +1044,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43">
+      <c r="A9" s="42">
         <v>44748</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="43">
         <v>7</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="44" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -1072,7 +1077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>44753</v>
       </c>
@@ -1089,11 +1094,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="40"/>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42">
+        <v>44757</v>
+      </c>
+      <c r="B12" s="43">
+        <v>10</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>29</v>
+      </c>
       <c r="E12" s="9" t="s">
         <v>5</v>
       </c>
@@ -1593,9 +1606,10 @@
     <hyperlink ref="D9" r:id="rId6"/>
     <hyperlink ref="D10" r:id="rId7"/>
     <hyperlink ref="D11" r:id="rId8"/>
+    <hyperlink ref="D12" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/INFORMACION Fundamentos y Logica.xlsx
+++ b/INFORMACION Fundamentos y Logica.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="32">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1k-w-rlJ9v69tkWToqMq05xBueHLijubh/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Repaso conceptos finales Algotirmos , logica y fundamentos + Javascrip (Repaso) + evaluacion JS</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ufPsCROc312J0buT2YyunFTNVUwMzfCg/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -890,8 +896,8 @@
   </sheetPr>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1112,10 +1118,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="10"/>
+      <c r="A13" s="7">
+        <v>44760</v>
+      </c>
+      <c r="B13" s="8">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>31</v>
+      </c>
       <c r="E13" s="9" t="s">
         <v>5</v>
       </c>
@@ -1607,9 +1621,10 @@
     <hyperlink ref="D10" r:id="rId7"/>
     <hyperlink ref="D11" r:id="rId8"/>
     <hyperlink ref="D12" r:id="rId9"/>
+    <hyperlink ref="D13" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
